--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2150.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2150.xlsx
@@ -448,13 +448,13 @@
         <v>17058.558803489</v>
       </c>
       <c r="G3" t="n">
-        <v>21694.7147613742</v>
+        <v>23428.4572941014</v>
       </c>
       <c r="H3" t="n">
-        <v>17841.0362534447</v>
+        <v>18985.3063250446</v>
       </c>
       <c r="I3" t="n">
-        <v>15671.5647773073</v>
+        <v>16642.4605956345</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>5886.02029002176</v>
       </c>
       <c r="G4" t="n">
-        <v>7485.71627549014</v>
+        <v>8083.94053598386</v>
       </c>
       <c r="H4" t="n">
-        <v>6156.0125091758</v>
+        <v>6550.84052110166</v>
       </c>
       <c r="I4" t="n">
-        <v>5407.44088162679</v>
+        <v>5742.44646750327</v>
       </c>
     </row>
     <row r="5">
@@ -506,13 +506,13 @@
         <v>1727.12220378895</v>
       </c>
       <c r="G5" t="n">
-        <v>2217.46793495973</v>
+        <v>2490.77210933625</v>
       </c>
       <c r="H5" t="n">
-        <v>1730.2256577837</v>
+        <v>1910.60641287221</v>
       </c>
       <c r="I5" t="n">
-        <v>1508.47886428773</v>
+        <v>1661.52920193858</v>
       </c>
     </row>
     <row r="6">
@@ -535,13 +535,13 @@
         <v>1208.98554265226</v>
       </c>
       <c r="G6" t="n">
-        <v>1552.22755447181</v>
+        <v>1743.54047653538</v>
       </c>
       <c r="H6" t="n">
-        <v>1211.15796044859</v>
+        <v>1337.42448901055</v>
       </c>
       <c r="I6" t="n">
-        <v>1055.93520500141</v>
+        <v>1163.07044135701</v>
       </c>
     </row>
     <row r="7">
@@ -564,13 +564,13 @@
         <v>4164.28353580224</v>
       </c>
       <c r="G7" t="n">
-        <v>5346.56157651401</v>
+        <v>6005.5283080663</v>
       </c>
       <c r="H7" t="n">
-        <v>4171.76630821181</v>
+        <v>4606.68435103632</v>
       </c>
       <c r="I7" t="n">
-        <v>3637.11015056041</v>
+        <v>4006.13152022969</v>
       </c>
     </row>
     <row r="8">
@@ -593,13 +593,13 @@
         <v>3597.01239945774</v>
       </c>
       <c r="G8" t="n">
-        <v>4574.60439057731</v>
+        <v>4940.18588310125</v>
       </c>
       <c r="H8" t="n">
-        <v>3762.00764449632</v>
+        <v>4003.29142956212</v>
       </c>
       <c r="I8" t="n">
-        <v>3304.54720543859</v>
+        <v>3509.272841252</v>
       </c>
     </row>
     <row r="9">
@@ -622,13 +622,13 @@
         <v>2072.54664454674</v>
       </c>
       <c r="G9" t="n">
-        <v>2660.96152195167</v>
+        <v>2988.9265312035</v>
       </c>
       <c r="H9" t="n">
-        <v>2076.27078934044</v>
+        <v>2292.72769544665</v>
       </c>
       <c r="I9" t="n">
-        <v>1810.17463714527</v>
+        <v>1993.8350423263</v>
       </c>
     </row>
     <row r="10">
@@ -651,13 +651,13 @@
         <v>287.853700631492</v>
       </c>
       <c r="G10" t="n">
-        <v>369.577989159955</v>
+        <v>415.128684889376</v>
       </c>
       <c r="H10" t="n">
-        <v>288.37094296395</v>
+        <v>318.434402145368</v>
       </c>
       <c r="I10" t="n">
-        <v>251.413144047955</v>
+        <v>276.92153365643</v>
       </c>
     </row>
     <row r="11">
@@ -680,13 +680,13 @@
         <v>70464.4985100141</v>
       </c>
       <c r="G11" t="n">
-        <v>90505.6653121639</v>
+        <v>101822.528793846</v>
       </c>
       <c r="H11" t="n">
-        <v>70461.5742558845</v>
+        <v>77930.704153795</v>
       </c>
       <c r="I11" t="n">
-        <v>61411.0077246681</v>
+        <v>67748.4512744103</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>49229.7117129783</v>
       </c>
       <c r="G12" t="n">
-        <v>63231.3846819746</v>
+        <v>71137.861538816</v>
       </c>
       <c r="H12" t="n">
-        <v>49227.6686957026</v>
+        <v>54445.9434212179</v>
       </c>
       <c r="I12" t="n">
-        <v>42904.5302275051</v>
+        <v>47332.1572673363</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         <v>15003.6181978603</v>
       </c>
       <c r="G13" t="n">
-        <v>19289.5462949319</v>
+        <v>21786.3228504289</v>
       </c>
       <c r="H13" t="n">
-        <v>14935.1515829559</v>
+        <v>16583.0241095839</v>
       </c>
       <c r="I13" t="n">
-        <v>13006.1969534627</v>
+        <v>14404.391824541</v>
       </c>
     </row>
     <row r="14">
@@ -767,13 +767,13 @@
         <v>17186.980547549</v>
       </c>
       <c r="G14" t="n">
-        <v>22096.6071363586</v>
+        <v>24956.720578663</v>
       </c>
       <c r="H14" t="n">
-        <v>17108.5505073413</v>
+        <v>18996.2253792622</v>
       </c>
       <c r="I14" t="n">
-        <v>14898.8897937054</v>
+        <v>16500.5533213959</v>
       </c>
     </row>
     <row r="15">
@@ -796,13 +796,13 @@
         <v>13044.1904481398</v>
       </c>
       <c r="G15" t="n">
-        <v>16770.389129549</v>
+        <v>18941.0941199625</v>
       </c>
       <c r="H15" t="n">
-        <v>12984.6653687639</v>
+        <v>14417.3306624368</v>
       </c>
       <c r="I15" t="n">
-        <v>11307.626455809</v>
+        <v>12523.2212504405</v>
       </c>
     </row>
     <row r="16">
@@ -825,13 +825,13 @@
         <v>41091.9990941399</v>
       </c>
       <c r="G16" t="n">
-        <v>52830.3245540299</v>
+        <v>59668.5110903539</v>
       </c>
       <c r="H16" t="n">
-        <v>40904.4823204837</v>
+        <v>45417.6854344575</v>
       </c>
       <c r="I16" t="n">
-        <v>35621.4498650807</v>
+        <v>39450.8343254221</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>10636.8934984831</v>
       </c>
       <c r="G17" t="n">
-        <v>13675.4246120786</v>
+        <v>15445.5273939608</v>
       </c>
       <c r="H17" t="n">
-        <v>10588.3537341851</v>
+        <v>11756.6215702274</v>
       </c>
       <c r="I17" t="n">
-        <v>9220.81127297729</v>
+        <v>10212.0688308313</v>
       </c>
     </row>
     <row r="18">
@@ -883,13 +883,13 @@
         <v>33870.1082451698</v>
       </c>
       <c r="G18" t="n">
-        <v>43545.4310016187</v>
+        <v>49181.8109123489</v>
       </c>
       <c r="H18" t="n">
-        <v>33715.5474167474</v>
+        <v>37435.5581578294</v>
       </c>
       <c r="I18" t="n">
-        <v>29361.0043165856</v>
+        <v>32517.3770665945</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>96.3467769914284</v>
       </c>
       <c r="G19" t="n">
-        <v>122.313336896173</v>
+        <v>131.08604329498</v>
       </c>
       <c r="H19" t="n">
-        <v>101.559945562</v>
+        <v>107.349931785213</v>
       </c>
       <c r="I19" t="n">
-        <v>89.3286118723825</v>
+        <v>94.2413274557146</v>
       </c>
     </row>
     <row r="20">
@@ -941,13 +941,13 @@
         <v>10189.0242985469</v>
       </c>
       <c r="G20" t="n">
-        <v>13099.6172599911</v>
+        <v>14795.1893984256</v>
       </c>
       <c r="H20" t="n">
-        <v>10142.5283137984</v>
+        <v>11261.6059251652</v>
       </c>
       <c r="I20" t="n">
-        <v>8832.5665877993</v>
+        <v>9782.08698532265</v>
       </c>
     </row>
     <row r="21">

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2150.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2150.xlsx
@@ -23,22 +23,22 @@
     <t xml:space="preserve">MI_SA_PCDD_2150</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ETInc_2150</t>
+    <t xml:space="preserve">MI_SA_ET15_2150</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_ETInc_2150</t>
+    <t xml:space="preserve">MI_SA_PCDec_ET15_2150</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_ETInc_2150</t>
+    <t xml:space="preserve">MI_SA_PCDD_ET15_2150</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ETDec_2150</t>
+    <t xml:space="preserve">MI_SA_ETLow_2150</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_ETDec_2150</t>
+    <t xml:space="preserve">MI_SA_PCDec_ETLow_2150</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_ETDec_2150</t>
+    <t xml:space="preserve">MI_SA_PCDD_ETLow_2150</t>
   </si>
 </sst>
 </file>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2150.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2150.xlsx
@@ -23,22 +23,22 @@
     <t xml:space="preserve">MI_SA_PCDD_2150</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ET15_2150</t>
+    <t xml:space="preserve">MI_SA_HighET_2150</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_ET15_2150</t>
+    <t xml:space="preserve">MI_SA_PCDec_HighET_2150</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_ET15_2150</t>
+    <t xml:space="preserve">MI_SA_PCDD_HighET_2150</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ETLow_2150</t>
+    <t xml:space="preserve">MI_SA_LowET_2150</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_ETLow_2150</t>
+    <t xml:space="preserve">MI_SA_PCDec_LowET_2150</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_ETLow_2150</t>
+    <t xml:space="preserve">MI_SA_PCDD_LowET_2150</t>
   </si>
 </sst>
 </file>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2150.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2150.xlsx
@@ -439,13 +439,13 @@
         <v>16365.0617903981</v>
       </c>
       <c r="D3" t="n">
-        <v>24171.4898081273</v>
+        <v>23758.6939670018</v>
       </c>
       <c r="E3" t="n">
-        <v>19475.7077843017</v>
+        <v>19203.2625291589</v>
       </c>
       <c r="F3" t="n">
-        <v>17058.558803489</v>
+        <v>16827.3931324587</v>
       </c>
       <c r="G3" t="n">
         <v>23428.4572941014</v>
@@ -468,13 +468,13 @@
         <v>5646.73058582428</v>
       </c>
       <c r="D4" t="n">
-        <v>8340.32236190974</v>
+        <v>8197.88801417314</v>
       </c>
       <c r="E4" t="n">
-        <v>6720.05252621274</v>
+        <v>6626.04585670658</v>
       </c>
       <c r="F4" t="n">
-        <v>5886.02029002176</v>
+        <v>5806.25705528927</v>
       </c>
       <c r="G4" t="n">
         <v>8083.94053598386</v>
@@ -497,13 +497,13 @@
         <v>1617.80053403834</v>
       </c>
       <c r="D5" t="n">
-        <v>2607.90246978334</v>
+        <v>2542.83004731273</v>
       </c>
       <c r="E5" t="n">
-        <v>1987.91245076728</v>
+        <v>1944.96465193669</v>
       </c>
       <c r="F5" t="n">
-        <v>1727.12220378895</v>
+        <v>1690.68164720541</v>
       </c>
       <c r="G5" t="n">
         <v>2490.77210933625</v>
@@ -526,13 +526,13 @@
         <v>1132.46037382684</v>
       </c>
       <c r="D6" t="n">
-        <v>1825.53172884834</v>
+        <v>1779.98103311891</v>
       </c>
       <c r="E6" t="n">
-        <v>1391.5387155371</v>
+        <v>1361.47525635568</v>
       </c>
       <c r="F6" t="n">
-        <v>1208.98554265226</v>
+        <v>1183.47715304379</v>
       </c>
       <c r="G6" t="n">
         <v>1743.54047653538</v>
@@ -555,13 +555,13 @@
         <v>3900.69684318133</v>
       </c>
       <c r="D7" t="n">
-        <v>6287.94262158871</v>
+        <v>6131.04578074293</v>
       </c>
       <c r="E7" t="n">
-        <v>4793.07779796111</v>
+        <v>4689.5258830029</v>
       </c>
       <c r="F7" t="n">
-        <v>4164.28353580224</v>
+        <v>4076.4213049286</v>
       </c>
       <c r="G7" t="n">
         <v>6005.5283080663</v>
@@ -584,13 +584,13 @@
         <v>3450.77980244817</v>
       </c>
       <c r="D8" t="n">
-        <v>5096.8636656115</v>
+        <v>5009.82045310581</v>
       </c>
       <c r="E8" t="n">
-        <v>4106.69876601889</v>
+        <v>4049.25024576513</v>
       </c>
       <c r="F8" t="n">
-        <v>3597.01239945774</v>
+        <v>3548.26820045455</v>
       </c>
       <c r="G8" t="n">
         <v>4940.18588310125</v>
@@ -613,13 +613,13 @@
         <v>1941.36064084601</v>
       </c>
       <c r="D9" t="n">
-        <v>3129.48296374</v>
+        <v>3051.39605677528</v>
       </c>
       <c r="E9" t="n">
-        <v>2385.49494092074</v>
+        <v>2333.95758232402</v>
       </c>
       <c r="F9" t="n">
-        <v>2072.54664454674</v>
+        <v>2028.81797664649</v>
       </c>
       <c r="G9" t="n">
         <v>2988.9265312035</v>
@@ -642,13 +642,13 @@
         <v>269.633422339723</v>
       </c>
       <c r="D10" t="n">
-        <v>434.650411630556</v>
+        <v>423.805007885456</v>
       </c>
       <c r="E10" t="n">
-        <v>331.318741794547</v>
+        <v>324.160775322781</v>
       </c>
       <c r="F10" t="n">
-        <v>287.853700631492</v>
+        <v>281.780274534235</v>
       </c>
       <c r="G10" t="n">
         <v>415.128684889376</v>
@@ -671,13 +671,13 @@
         <v>65937.7531173411</v>
       </c>
       <c r="D11" t="n">
-        <v>106672.613143139</v>
+        <v>103978.121837976</v>
       </c>
       <c r="E11" t="n">
-        <v>81131.759824328</v>
+        <v>79353.3955629208</v>
       </c>
       <c r="F11" t="n">
-        <v>70464.4985100141</v>
+        <v>68955.5833791231</v>
       </c>
       <c r="G11" t="n">
         <v>101822.528793846</v>
@@ -700,13 +700,13 @@
         <v>46067.1209702417</v>
       </c>
       <c r="D12" t="n">
-        <v>74526.3516203194</v>
+        <v>72643.8571305953</v>
       </c>
       <c r="E12" t="n">
-        <v>56682.3468750102</v>
+        <v>55439.9005117923</v>
       </c>
       <c r="F12" t="n">
-        <v>49229.7117129783</v>
+        <v>48175.5147987328</v>
       </c>
       <c r="G12" t="n">
         <v>71137.861538816</v>
@@ -729,13 +729,13 @@
         <v>14004.9075756615</v>
       </c>
       <c r="D13" t="n">
-        <v>22856.369945642</v>
+        <v>22261.8993371903</v>
       </c>
       <c r="E13" t="n">
-        <v>17289.2551924245</v>
+        <v>16896.9045908464</v>
       </c>
       <c r="F13" t="n">
-        <v>15003.6181978603</v>
+        <v>14670.7146571274</v>
       </c>
       <c r="G13" t="n">
         <v>21786.3228504289</v>
@@ -758,13 +758,13 @@
         <v>16042.9351706272</v>
       </c>
       <c r="D14" t="n">
-        <v>26182.4834825078</v>
+        <v>25501.5040914829</v>
       </c>
       <c r="E14" t="n">
-        <v>19805.2288957997</v>
+        <v>19355.7824977233</v>
       </c>
       <c r="F14" t="n">
-        <v>17186.980547549</v>
+        <v>16805.632088575</v>
       </c>
       <c r="G14" t="n">
         <v>24956.720578663</v>
@@ -787,13 +787,13 @@
         <v>12175.9084519744</v>
       </c>
       <c r="D15" t="n">
-        <v>19871.3962587111</v>
+        <v>19354.5617371841</v>
       </c>
       <c r="E15" t="n">
-        <v>15031.3300740109</v>
+        <v>14690.219289803</v>
       </c>
       <c r="F15" t="n">
-        <v>13044.1904481398</v>
+        <v>12754.7631160846</v>
       </c>
       <c r="G15" t="n">
         <v>18941.0941199625</v>
@@ -816,13 +816,13 @@
         <v>38356.7244796103</v>
       </c>
       <c r="D16" t="n">
-        <v>62599.1624630642</v>
+        <v>60971.0228115585</v>
       </c>
       <c r="E16" t="n">
-        <v>47351.9153404463</v>
+        <v>46277.3431704525</v>
       </c>
       <c r="F16" t="n">
-        <v>41091.9990941399</v>
+        <v>40180.2408892967</v>
       </c>
       <c r="G16" t="n">
         <v>59668.5110903539</v>
@@ -845,13 +845,13 @@
         <v>9928.85238573018</v>
       </c>
       <c r="D17" t="n">
-        <v>16204.1428719103</v>
+        <v>15782.6898286051</v>
       </c>
       <c r="E17" t="n">
-        <v>12257.3077856741</v>
+        <v>11979.1487770926</v>
       </c>
       <c r="F17" t="n">
-        <v>10636.8934984831</v>
+        <v>10400.8797942321</v>
       </c>
       <c r="G17" t="n">
         <v>15445.5273939608</v>
@@ -874,13 +874,13 @@
         <v>31615.5562808777</v>
       </c>
       <c r="D18" t="n">
-        <v>51597.4023026619</v>
+        <v>50255.4070858214</v>
       </c>
       <c r="E18" t="n">
-        <v>39029.848475436</v>
+        <v>38144.1316323212</v>
       </c>
       <c r="F18" t="n">
-        <v>33870.1082451698</v>
+        <v>33118.5909237391</v>
       </c>
       <c r="G18" t="n">
         <v>49181.8109123489</v>
@@ -903,13 +903,13 @@
         <v>92.8376944319054</v>
       </c>
       <c r="D19" t="n">
-        <v>134.845774608755</v>
+        <v>132.757034989991</v>
       </c>
       <c r="E19" t="n">
-        <v>109.831354452304</v>
+        <v>108.45278630392</v>
       </c>
       <c r="F19" t="n">
-        <v>96.3467769914284</v>
+        <v>95.1770828049207</v>
       </c>
       <c r="G19" t="n">
         <v>131.08604329498</v>
@@ -932,13 +932,13 @@
         <v>9510.79544317312</v>
       </c>
       <c r="D20" t="n">
-        <v>15521.8631720404</v>
+        <v>15118.1555200322</v>
       </c>
       <c r="E20" t="n">
-        <v>11741.210615751</v>
+        <v>11474.7635654256</v>
       </c>
       <c r="F20" t="n">
-        <v>10189.0242985469</v>
+        <v>9962.94801342233</v>
       </c>
       <c r="G20" t="n">
         <v>14795.1893984256</v>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2150.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2150.xlsx
@@ -32,13 +32,13 @@
     <t xml:space="preserve">MI_SA_PCDD_HighET_2150</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_LowET_2150</t>
+    <t xml:space="preserve">MI_SA_ET_Low_2150</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_LowET_2150</t>
+    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2150</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_LowET_2150</t>
+    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2150</t>
   </si>
 </sst>
 </file>
@@ -439,13 +439,13 @@
         <v>16365.0617903981</v>
       </c>
       <c r="D3" t="n">
-        <v>23758.6939670018</v>
+        <v>24171.4898081273</v>
       </c>
       <c r="E3" t="n">
-        <v>19203.2625291589</v>
+        <v>19475.7077843017</v>
       </c>
       <c r="F3" t="n">
-        <v>16827.3931324587</v>
+        <v>17058.558803489</v>
       </c>
       <c r="G3" t="n">
         <v>23428.4572941014</v>
@@ -468,13 +468,13 @@
         <v>5646.73058582428</v>
       </c>
       <c r="D4" t="n">
-        <v>8197.88801417314</v>
+        <v>8340.32236190974</v>
       </c>
       <c r="E4" t="n">
-        <v>6626.04585670658</v>
+        <v>6720.05252621274</v>
       </c>
       <c r="F4" t="n">
-        <v>5806.25705528927</v>
+        <v>5886.02029002176</v>
       </c>
       <c r="G4" t="n">
         <v>8083.94053598386</v>
@@ -497,13 +497,13 @@
         <v>1617.80053403834</v>
       </c>
       <c r="D5" t="n">
-        <v>2542.83004731273</v>
+        <v>2607.90246978334</v>
       </c>
       <c r="E5" t="n">
-        <v>1944.96465193669</v>
+        <v>1987.91245076728</v>
       </c>
       <c r="F5" t="n">
-        <v>1690.68164720541</v>
+        <v>1727.12220378895</v>
       </c>
       <c r="G5" t="n">
         <v>2490.77210933625</v>
@@ -526,13 +526,13 @@
         <v>1132.46037382684</v>
       </c>
       <c r="D6" t="n">
-        <v>1779.98103311891</v>
+        <v>1825.53172884834</v>
       </c>
       <c r="E6" t="n">
-        <v>1361.47525635568</v>
+        <v>1391.5387155371</v>
       </c>
       <c r="F6" t="n">
-        <v>1183.47715304379</v>
+        <v>1208.98554265226</v>
       </c>
       <c r="G6" t="n">
         <v>1743.54047653538</v>
@@ -555,13 +555,13 @@
         <v>3900.69684318133</v>
       </c>
       <c r="D7" t="n">
-        <v>6131.04578074293</v>
+        <v>6287.94262158871</v>
       </c>
       <c r="E7" t="n">
-        <v>4689.5258830029</v>
+        <v>4793.07779796111</v>
       </c>
       <c r="F7" t="n">
-        <v>4076.4213049286</v>
+        <v>4164.28353580224</v>
       </c>
       <c r="G7" t="n">
         <v>6005.5283080663</v>
@@ -584,13 +584,13 @@
         <v>3450.77980244817</v>
       </c>
       <c r="D8" t="n">
-        <v>5009.82045310581</v>
+        <v>5096.8636656115</v>
       </c>
       <c r="E8" t="n">
-        <v>4049.25024576513</v>
+        <v>4106.69876601889</v>
       </c>
       <c r="F8" t="n">
-        <v>3548.26820045455</v>
+        <v>3597.01239945774</v>
       </c>
       <c r="G8" t="n">
         <v>4940.18588310125</v>
@@ -613,13 +613,13 @@
         <v>1941.36064084601</v>
       </c>
       <c r="D9" t="n">
-        <v>3051.39605677528</v>
+        <v>3129.48296374</v>
       </c>
       <c r="E9" t="n">
-        <v>2333.95758232402</v>
+        <v>2385.49494092074</v>
       </c>
       <c r="F9" t="n">
-        <v>2028.81797664649</v>
+        <v>2072.54664454674</v>
       </c>
       <c r="G9" t="n">
         <v>2988.9265312035</v>
@@ -642,13 +642,13 @@
         <v>269.633422339723</v>
       </c>
       <c r="D10" t="n">
-        <v>423.805007885456</v>
+        <v>434.650411630556</v>
       </c>
       <c r="E10" t="n">
-        <v>324.160775322781</v>
+        <v>331.318741794547</v>
       </c>
       <c r="F10" t="n">
-        <v>281.780274534235</v>
+        <v>287.853700631492</v>
       </c>
       <c r="G10" t="n">
         <v>415.128684889376</v>
@@ -671,13 +671,13 @@
         <v>65937.7531173411</v>
       </c>
       <c r="D11" t="n">
-        <v>103978.121837976</v>
+        <v>106672.613143139</v>
       </c>
       <c r="E11" t="n">
-        <v>79353.3955629208</v>
+        <v>81131.759824328</v>
       </c>
       <c r="F11" t="n">
-        <v>68955.5833791231</v>
+        <v>70464.4985100141</v>
       </c>
       <c r="G11" t="n">
         <v>101822.528793846</v>
@@ -700,13 +700,13 @@
         <v>46067.1209702417</v>
       </c>
       <c r="D12" t="n">
-        <v>72643.8571305953</v>
+        <v>74526.3516203194</v>
       </c>
       <c r="E12" t="n">
-        <v>55439.9005117923</v>
+        <v>56682.3468750102</v>
       </c>
       <c r="F12" t="n">
-        <v>48175.5147987328</v>
+        <v>49229.7117129783</v>
       </c>
       <c r="G12" t="n">
         <v>71137.861538816</v>
@@ -729,13 +729,13 @@
         <v>14004.9075756615</v>
       </c>
       <c r="D13" t="n">
-        <v>22261.8993371903</v>
+        <v>22856.369945642</v>
       </c>
       <c r="E13" t="n">
-        <v>16896.9045908464</v>
+        <v>17289.2551924245</v>
       </c>
       <c r="F13" t="n">
-        <v>14670.7146571274</v>
+        <v>15003.6181978603</v>
       </c>
       <c r="G13" t="n">
         <v>21786.3228504289</v>
@@ -758,13 +758,13 @@
         <v>16042.9351706272</v>
       </c>
       <c r="D14" t="n">
-        <v>25501.5040914829</v>
+        <v>26182.4834825078</v>
       </c>
       <c r="E14" t="n">
-        <v>19355.7824977233</v>
+        <v>19805.2288957997</v>
       </c>
       <c r="F14" t="n">
-        <v>16805.632088575</v>
+        <v>17186.980547549</v>
       </c>
       <c r="G14" t="n">
         <v>24956.720578663</v>
@@ -787,13 +787,13 @@
         <v>12175.9084519744</v>
       </c>
       <c r="D15" t="n">
-        <v>19354.5617371841</v>
+        <v>19871.3962587111</v>
       </c>
       <c r="E15" t="n">
-        <v>14690.219289803</v>
+        <v>15031.3300740109</v>
       </c>
       <c r="F15" t="n">
-        <v>12754.7631160846</v>
+        <v>13044.1904481398</v>
       </c>
       <c r="G15" t="n">
         <v>18941.0941199625</v>
@@ -816,13 +816,13 @@
         <v>38356.7244796103</v>
       </c>
       <c r="D16" t="n">
-        <v>60971.0228115585</v>
+        <v>62599.1624630642</v>
       </c>
       <c r="E16" t="n">
-        <v>46277.3431704525</v>
+        <v>47351.9153404463</v>
       </c>
       <c r="F16" t="n">
-        <v>40180.2408892967</v>
+        <v>41091.9990941399</v>
       </c>
       <c r="G16" t="n">
         <v>59668.5110903539</v>
@@ -845,13 +845,13 @@
         <v>9928.85238573018</v>
       </c>
       <c r="D17" t="n">
-        <v>15782.6898286051</v>
+        <v>16204.1428719103</v>
       </c>
       <c r="E17" t="n">
-        <v>11979.1487770926</v>
+        <v>12257.3077856741</v>
       </c>
       <c r="F17" t="n">
-        <v>10400.8797942321</v>
+        <v>10636.8934984831</v>
       </c>
       <c r="G17" t="n">
         <v>15445.5273939608</v>
@@ -874,13 +874,13 @@
         <v>31615.5562808777</v>
       </c>
       <c r="D18" t="n">
-        <v>50255.4070858214</v>
+        <v>51597.4023026619</v>
       </c>
       <c r="E18" t="n">
-        <v>38144.1316323212</v>
+        <v>39029.848475436</v>
       </c>
       <c r="F18" t="n">
-        <v>33118.5909237391</v>
+        <v>33870.1082451698</v>
       </c>
       <c r="G18" t="n">
         <v>49181.8109123489</v>
@@ -903,13 +903,13 @@
         <v>92.8376944319054</v>
       </c>
       <c r="D19" t="n">
-        <v>132.757034989991</v>
+        <v>134.845774608755</v>
       </c>
       <c r="E19" t="n">
-        <v>108.45278630392</v>
+        <v>109.831354452304</v>
       </c>
       <c r="F19" t="n">
-        <v>95.1770828049207</v>
+        <v>96.3467769914284</v>
       </c>
       <c r="G19" t="n">
         <v>131.08604329498</v>
@@ -932,13 +932,13 @@
         <v>9510.79544317312</v>
       </c>
       <c r="D20" t="n">
-        <v>15118.1555200322</v>
+        <v>15521.8631720404</v>
       </c>
       <c r="E20" t="n">
-        <v>11474.7635654256</v>
+        <v>11741.210615751</v>
       </c>
       <c r="F20" t="n">
-        <v>9962.94801342233</v>
+        <v>10189.0242985469</v>
       </c>
       <c r="G20" t="n">
         <v>14795.1893984256</v>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2150.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2150.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">MI_SA_2150</t>
   </si>
@@ -39,6 +39,15 @@
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_ET_Low_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_Precip_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_Precip_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_Precip_2150</t>
   </si>
 </sst>
 </file>
@@ -398,6 +407,15 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -427,6 +445,15 @@
       <c r="I2" t="n">
         <v>35500</v>
       </c>
+      <c r="J2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="K2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="L2" t="n">
+        <v>35500</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +483,15 @@
       <c r="I3" t="n">
         <v>16642.4605956345</v>
       </c>
+      <c r="J3" t="n">
+        <v>22520.3064436252</v>
+      </c>
+      <c r="K3" t="n">
+        <v>19203.2625291589</v>
+      </c>
+      <c r="L3" t="n">
+        <v>16827.3931324587</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -485,6 +521,15 @@
       <c r="I4" t="n">
         <v>5742.44646750327</v>
       </c>
+      <c r="J4" t="n">
+        <v>7770.58497096334</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6626.04585670658</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5806.25705528927</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -514,6 +559,15 @@
       <c r="I5" t="n">
         <v>1661.52920193858</v>
       </c>
+      <c r="J5" t="n">
+        <v>2347.61277990093</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1944.96465193669</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1690.68164720541</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -543,6 +597,15 @@
       <c r="I6" t="n">
         <v>1163.07044135701</v>
       </c>
+      <c r="J6" t="n">
+        <v>1643.32894593065</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1361.47525635568</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1183.47715304379</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -572,6 +635,15 @@
       <c r="I7" t="n">
         <v>4006.13152022969</v>
       </c>
+      <c r="J7" t="n">
+        <v>5660.35525820558</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4689.5258830029</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4076.4213049286</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -601,6 +673,15 @@
       <c r="I8" t="n">
         <v>3509.272841252</v>
       </c>
+      <c r="J8" t="n">
+        <v>4748.69081558871</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4049.25024576513</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3548.26820045455</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -630,6 +711,15 @@
       <c r="I9" t="n">
         <v>1993.8350423263</v>
       </c>
+      <c r="J9" t="n">
+        <v>2817.13533588112</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2333.95758232402</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2028.81797664649</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -659,6 +749,15 @@
       <c r="I10" t="n">
         <v>276.92153365643</v>
       </c>
+      <c r="J10" t="n">
+        <v>391.268796650155</v>
+      </c>
+      <c r="K10" t="n">
+        <v>324.160775322781</v>
+      </c>
+      <c r="L10" t="n">
+        <v>281.780274534235</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -688,6 +787,15 @@
       <c r="I11" t="n">
         <v>67748.4512744103</v>
       </c>
+      <c r="J11" t="n">
+        <v>95894.6479224889</v>
+      </c>
+      <c r="K11" t="n">
+        <v>79353.3955629208</v>
+      </c>
+      <c r="L11" t="n">
+        <v>68955.5833791231</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -717,6 +825,15 @@
       <c r="I12" t="n">
         <v>47332.1572673363</v>
       </c>
+      <c r="J12" t="n">
+        <v>66996.3736614229</v>
+      </c>
+      <c r="K12" t="n">
+        <v>55439.9005117923</v>
+      </c>
+      <c r="L12" t="n">
+        <v>48175.5147987328</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -746,6 +863,15 @@
       <c r="I13" t="n">
         <v>14404.391824541</v>
       </c>
+      <c r="J13" t="n">
+        <v>20478.4875118353</v>
+      </c>
+      <c r="K13" t="n">
+        <v>16896.9045908464</v>
+      </c>
+      <c r="L13" t="n">
+        <v>14670.7146571274</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -775,6 +901,15 @@
       <c r="I14" t="n">
         <v>16500.5533213959</v>
       </c>
+      <c r="J14" t="n">
+        <v>23458.5659184083</v>
+      </c>
+      <c r="K14" t="n">
+        <v>19355.7824977233</v>
+      </c>
+      <c r="L14" t="n">
+        <v>16805.632088575</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -804,6 +939,15 @@
       <c r="I15" t="n">
         <v>12523.2212504405</v>
       </c>
+      <c r="J15" t="n">
+        <v>17804.058172603</v>
+      </c>
+      <c r="K15" t="n">
+        <v>14690.219289803</v>
+      </c>
+      <c r="L15" t="n">
+        <v>12754.7631160846</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -833,6 +977,15 @@
       <c r="I16" t="n">
         <v>39450.8343254221</v>
       </c>
+      <c r="J16" t="n">
+        <v>56086.6038570414</v>
+      </c>
+      <c r="K16" t="n">
+        <v>46277.3431704525</v>
+      </c>
+      <c r="L16" t="n">
+        <v>40180.2408892967</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -862,6 +1015,15 @@
       <c r="I17" t="n">
         <v>10212.0688308313</v>
       </c>
+      <c r="J17" t="n">
+        <v>14518.3306986892</v>
+      </c>
+      <c r="K17" t="n">
+        <v>11979.1487770926</v>
+      </c>
+      <c r="L17" t="n">
+        <v>10400.8797942321</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -891,6 +1053,15 @@
       <c r="I18" t="n">
         <v>32517.3770665945</v>
       </c>
+      <c r="J18" t="n">
+        <v>46229.4214352998</v>
+      </c>
+      <c r="K18" t="n">
+        <v>38144.1316323212</v>
+      </c>
+      <c r="L18" t="n">
+        <v>33118.5909237391</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -920,6 +1091,15 @@
       <c r="I19" t="n">
         <v>94.2413274557146</v>
       </c>
+      <c r="J19" t="n">
+        <v>126.4908161337</v>
+      </c>
+      <c r="K19" t="n">
+        <v>108.45278630392</v>
+      </c>
+      <c r="L19" t="n">
+        <v>95.1770828049207</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -949,6 +1129,15 @@
       <c r="I20" t="n">
         <v>9782.08698532265</v>
       </c>
+      <c r="J20" t="n">
+        <v>13907.0325640075</v>
+      </c>
+      <c r="K20" t="n">
+        <v>11474.7635654256</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9962.94801342233</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -976,6 +1165,15 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2150.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2150.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">MI_SA_2150</t>
   </si>
@@ -39,15 +39,6 @@
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_ET_Low_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_Precip_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_Precip_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_Precip_2150</t>
   </si>
 </sst>
 </file>
@@ -407,15 +398,6 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -445,15 +427,6 @@
       <c r="I2" t="n">
         <v>35500</v>
       </c>
-      <c r="J2" t="n">
-        <v>35500</v>
-      </c>
-      <c r="K2" t="n">
-        <v>35500</v>
-      </c>
-      <c r="L2" t="n">
-        <v>35500</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,15 +456,6 @@
       <c r="I3" t="n">
         <v>16642.4605956345</v>
       </c>
-      <c r="J3" t="n">
-        <v>22520.3064436252</v>
-      </c>
-      <c r="K3" t="n">
-        <v>19203.2625291589</v>
-      </c>
-      <c r="L3" t="n">
-        <v>16827.3931324587</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -521,15 +485,6 @@
       <c r="I4" t="n">
         <v>5742.44646750327</v>
       </c>
-      <c r="J4" t="n">
-        <v>7770.58497096334</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6626.04585670658</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5806.25705528927</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -559,15 +514,6 @@
       <c r="I5" t="n">
         <v>1661.52920193858</v>
       </c>
-      <c r="J5" t="n">
-        <v>2347.61277990093</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1944.96465193669</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1690.68164720541</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -597,15 +543,6 @@
       <c r="I6" t="n">
         <v>1163.07044135701</v>
       </c>
-      <c r="J6" t="n">
-        <v>1643.32894593065</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1361.47525635568</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1183.47715304379</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -635,15 +572,6 @@
       <c r="I7" t="n">
         <v>4006.13152022969</v>
       </c>
-      <c r="J7" t="n">
-        <v>5660.35525820558</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4689.5258830029</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4076.4213049286</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -673,15 +601,6 @@
       <c r="I8" t="n">
         <v>3509.272841252</v>
       </c>
-      <c r="J8" t="n">
-        <v>4748.69081558871</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4049.25024576513</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3548.26820045455</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -711,15 +630,6 @@
       <c r="I9" t="n">
         <v>1993.8350423263</v>
       </c>
-      <c r="J9" t="n">
-        <v>2817.13533588112</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2333.95758232402</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2028.81797664649</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -749,15 +659,6 @@
       <c r="I10" t="n">
         <v>276.92153365643</v>
       </c>
-      <c r="J10" t="n">
-        <v>391.268796650155</v>
-      </c>
-      <c r="K10" t="n">
-        <v>324.160775322781</v>
-      </c>
-      <c r="L10" t="n">
-        <v>281.780274534235</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -787,15 +688,6 @@
       <c r="I11" t="n">
         <v>67748.4512744103</v>
       </c>
-      <c r="J11" t="n">
-        <v>95894.6479224889</v>
-      </c>
-      <c r="K11" t="n">
-        <v>79353.3955629208</v>
-      </c>
-      <c r="L11" t="n">
-        <v>68955.5833791231</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -825,15 +717,6 @@
       <c r="I12" t="n">
         <v>47332.1572673363</v>
       </c>
-      <c r="J12" t="n">
-        <v>66996.3736614229</v>
-      </c>
-      <c r="K12" t="n">
-        <v>55439.9005117923</v>
-      </c>
-      <c r="L12" t="n">
-        <v>48175.5147987328</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -863,15 +746,6 @@
       <c r="I13" t="n">
         <v>14404.391824541</v>
       </c>
-      <c r="J13" t="n">
-        <v>20478.4875118353</v>
-      </c>
-      <c r="K13" t="n">
-        <v>16896.9045908464</v>
-      </c>
-      <c r="L13" t="n">
-        <v>14670.7146571274</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -901,15 +775,6 @@
       <c r="I14" t="n">
         <v>16500.5533213959</v>
       </c>
-      <c r="J14" t="n">
-        <v>23458.5659184083</v>
-      </c>
-      <c r="K14" t="n">
-        <v>19355.7824977233</v>
-      </c>
-      <c r="L14" t="n">
-        <v>16805.632088575</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -939,15 +804,6 @@
       <c r="I15" t="n">
         <v>12523.2212504405</v>
       </c>
-      <c r="J15" t="n">
-        <v>17804.058172603</v>
-      </c>
-      <c r="K15" t="n">
-        <v>14690.219289803</v>
-      </c>
-      <c r="L15" t="n">
-        <v>12754.7631160846</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -977,15 +833,6 @@
       <c r="I16" t="n">
         <v>39450.8343254221</v>
       </c>
-      <c r="J16" t="n">
-        <v>56086.6038570414</v>
-      </c>
-      <c r="K16" t="n">
-        <v>46277.3431704525</v>
-      </c>
-      <c r="L16" t="n">
-        <v>40180.2408892967</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1015,15 +862,6 @@
       <c r="I17" t="n">
         <v>10212.0688308313</v>
       </c>
-      <c r="J17" t="n">
-        <v>14518.3306986892</v>
-      </c>
-      <c r="K17" t="n">
-        <v>11979.1487770926</v>
-      </c>
-      <c r="L17" t="n">
-        <v>10400.8797942321</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1053,15 +891,6 @@
       <c r="I18" t="n">
         <v>32517.3770665945</v>
       </c>
-      <c r="J18" t="n">
-        <v>46229.4214352998</v>
-      </c>
-      <c r="K18" t="n">
-        <v>38144.1316323212</v>
-      </c>
-      <c r="L18" t="n">
-        <v>33118.5909237391</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1091,15 +920,6 @@
       <c r="I19" t="n">
         <v>94.2413274557146</v>
       </c>
-      <c r="J19" t="n">
-        <v>126.4908161337</v>
-      </c>
-      <c r="K19" t="n">
-        <v>108.45278630392</v>
-      </c>
-      <c r="L19" t="n">
-        <v>95.1770828049207</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1129,15 +949,6 @@
       <c r="I20" t="n">
         <v>9782.08698532265</v>
       </c>
-      <c r="J20" t="n">
-        <v>13907.0325640075</v>
-      </c>
-      <c r="K20" t="n">
-        <v>11474.7635654256</v>
-      </c>
-      <c r="L20" t="n">
-        <v>9962.94801342233</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1165,15 +976,6 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
         <v>0</v>
       </c>
     </row>
